--- a/05 테스팅/테스트케이스_7_SHORTSTORMERS.xlsx
+++ b/05 테스팅/테스트케이스_7_SHORTSTORMERS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교2018\소프트웨어공학\5테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syJOE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -17,7 +17,7 @@
     <sheet name="테스트케이스" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">테스트케이스!$A$1:$K$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">테스트케이스!$A$1:$K$92</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="367">
   <si>
     <r>
       <rPr>
@@ -505,10 +505,15 @@
     <t>TC0002</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <t>2018.05.31</t>
+  </si>
+  <si>
+    <t>TC0003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -517,37 +522,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>공백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: adsf
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -556,7 +540,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -568,7 +551,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -578,7 +560,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -587,7 +568,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -598,7 +578,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -607,7 +586,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -619,7 +597,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -629,16 +606,14 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>필수 입력 사항입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>아이디 및 비밀번호가 틀렸습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -649,7 +624,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -658,7 +632,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -667,22 +640,16 @@
     </r>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>2018.05.31</t>
-  </si>
-  <si>
-    <t>#1379</t>
-  </si>
-  <si>
-    <t>TC0003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>TC0006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -691,18 +658,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: storemrs
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: STORMERS
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -711,40 +678,73 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>공백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>#1380</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: stormers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>아이디 및 비밀번호가 틀렸습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>라는 알림메시지 창이 뜬다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC0007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -753,16 +753,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: adsf
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: stormers
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -771,19 +773,198 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: stormers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: fsda</t>
+    </r>
+  </si>
+  <si>
+    <t>TC0008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">아이디 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: stormers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">비밀번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1234</t>
+    </r>
+  </si>
+  <si>
+    <t>SR001</t>
+  </si>
+  <si>
+    <t>TC0009</t>
+  </si>
+  <si>
+    <t>수강 과목 등록 성공 여부</t>
+  </si>
+  <si>
+    <t>로그인되어 있는 상태</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">과목 명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">소프트웨어 공학
+담당 교수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">한혁수
+요일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">월
+시간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 3-6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수강 년도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">학기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">1. </t>
@@ -791,6 +972,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
@@ -799,8 +981,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">.
@@ -809,16 +992,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>로그인을 클릭한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>등록버튼을 클릭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>.</t>
@@ -828,366 +1013,136 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>아이디 및 비밀번호가 틀렸습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">."
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>수강과목 리스트 화면으로 이동한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>라는 알림메시지 창이 뜬다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>수강과목 리스트에 과목이 추가된다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>TC0006</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">아이디 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: STORMERS
+    <t>2018.05.27</t>
+  </si>
+  <si>
+    <t>TC0010</t>
+  </si>
+  <si>
+    <t>2018.05.29</t>
+  </si>
+  <si>
+    <t>TC0011</t>
+  </si>
+  <si>
+    <t>TC0012</t>
+  </si>
+  <si>
+    <t>로그인 되어 있는 상태</t>
+  </si>
+  <si>
+    <t>TC0013</t>
+  </si>
+  <si>
+    <t>SR002</t>
+  </si>
+  <si>
+    <t>TC0014</t>
+  </si>
+  <si>
+    <t>수강 과목 삭제 성공 여부</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">로그인이 되어 있는 상태
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">비밀번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: stormers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>아이디 및 비밀번호가 틀렸습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">."
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>라는 알림메시지 창이 뜬다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>TC0007</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">아이디 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: stormers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">비밀번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: fsda</t>
-    </r>
-  </si>
-  <si>
-    <t>TC0008</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">아이디 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: stormers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">비밀번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1234</t>
-    </r>
-  </si>
-  <si>
-    <t>SR001</t>
-  </si>
-  <si>
-    <t>TC0009</t>
-  </si>
-  <si>
-    <t>수강 과목 등록 성공 여부</t>
-  </si>
-  <si>
-    <t>로그인되어 있는 상태</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">소프트웨어 공학
-담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">한혁수
-요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 3-6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수강과목이 최소 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>개 이상 등록되어 있는 상태</t>
+    </r>
+  </si>
+  <si>
+    <t>과목 리스트의 항목
+삭제 버튼</t>
   </si>
   <si>
     <r>
@@ -1207,7 +1162,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t>입력값을 넣는다</t>
+      <t>과목 리스트에서 항목을 선택한다</t>
     </r>
     <r>
       <rPr>
@@ -1227,917 +1182,6 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t>등록버튼을 클릭한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>수강과목 리스트 화면으로 이동한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>수강과목 리스트에 과목이 추가된다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>2018.05.27</t>
-  </si>
-  <si>
-    <t>TC0010</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">소프트웨어 공학
-담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>한혁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">@
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 3-6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>입력값을 넣는다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>등록버튼을 클릭한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>특수문자는 입력할 수 없습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">."
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>라는 알림메시지 창이 뜬다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>2018.05.29</t>
-  </si>
-  <si>
-    <t>#1294</t>
-  </si>
-  <si>
-    <t>TC0011</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">소프트웨어 공학
-담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">한혁수
-요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>공백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>필수 입력 사항입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>라는 
-알림메시지 창이 뜬다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>#1295</t>
-  </si>
-  <si>
-    <t>TC0012</t>
-  </si>
-  <si>
-    <t>로그인 되어 있는 상태</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>공백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">한혁수
-요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 3-6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-  </si>
-  <si>
-    <t>#1382</t>
-  </si>
-  <si>
-    <t>TC0013</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">소프트웨어 공학
-담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>공백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 3-6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-  </si>
-  <si>
-    <t>#1383</t>
-  </si>
-  <si>
-    <t>SR002</t>
-  </si>
-  <si>
-    <t>TC0014</t>
-  </si>
-  <si>
-    <t>수강 과목 삭제 성공 여부</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">로그인이 되어 있는 상태
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강과목이 최소 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>개 이상 등록되어 있는 상태</t>
-    </r>
-  </si>
-  <si>
-    <t>과목 리스트의 항목
-삭제 버튼</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>과목 리스트에서 항목을 선택한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
       <t>삭제 버튼을 클릭한다</t>
     </r>
     <r>
@@ -2177,172 +1221,7 @@
     <t>TC0015</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">로그인이 되어 있는 상태
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강과목이 최소 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>개 이상 등록되어 있는 상태</t>
-    </r>
-  </si>
-  <si>
     <t>삭제 버튼</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>과목 리스트에서 항목을 선택한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>삭제 버튼을 클릭한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>항목을 선택해주세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>라는 알림메시지 창이 뜬다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>#1384</t>
   </si>
   <si>
     <t>TC0016</t>
@@ -2818,849 +1697,16 @@
     <t>TC0019</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수정 버튼
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>수정 버튼을 클릭한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>항목을 선택해주세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>라는 
-알림 메시지 창이 뜬다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>#1385</t>
-  </si>
-  <si>
     <t>TC0020</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 리스트의 항목
-수정 버튼
-과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>공백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">한혁수
-요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 3-6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>과목 리스트에서 항목을
-선택한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>수정 버튼을 클릭한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>입력값을 수정한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>수정 완료 버튼을 클릭한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>#1386</t>
-  </si>
-  <si>
     <t>TC0021</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 리스트의 항목
-수정 버튼
-과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">소프트웨어 공학
-담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>공백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 3-6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-  </si>
-  <si>
-    <t>#1296</t>
-  </si>
-  <si>
     <t>TC0022</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 리스트의 항목
-수정 버튼
-과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">소프트웨어 공학
-담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">한혁수
-요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>공백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-  </si>
-  <si>
-    <t>#1297</t>
-  </si>
-  <si>
     <t>TC0023</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과목 리스트의 항목
-수정 버튼
-과목 명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">소프트웨어 공학
-담당 교수 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>한혁수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">@
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">요일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">월
-시간 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 3-6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">수강 년도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: 2018
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">학기 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>담당 교수 명에 특수 문자는 포함할 수 없습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">."
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>라는 알림 메시지 창이 뜬다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>#1298</t>
   </si>
   <si>
     <t>SH001</t>
@@ -10895,6 +8941,2366 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">아이디 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>공백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">비밀번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: stormers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">아이디 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: storemrs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">비밀번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>공백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>입력값을 넣는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>등록버튼을 클릭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>특수문자는 입력할 수 없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>라는 알림메시지 창이 뜬다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">과목 명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>공백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">담당 교수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">한혁수
+요일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">월
+시간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 3-6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수강 년도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">학기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>필수 입력 사항입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>라는 
+알림메시지 창이 뜬다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소프트웨어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공학
+담당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한혁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">@
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월
+시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 3-6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소프트웨어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공학
+담당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월
+시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 3-6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소프트웨어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공학
+담당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한혁수
+요일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월
+시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">로그인이 되어 있는 상태
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수강과목이 최소 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>개 이상 등록되어 있는 상태</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>과목 리스트에서 항목을 선택한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>삭제 버튼을 클릭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>항목을 선택해주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>라는 알림메시지 창이 뜬다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>V.1.03</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조성윤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조은재</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수정 버튼
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>수정 버튼을 클릭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>항목을 선택해주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>라는 
+알림 메시지 창이 뜬다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">과목 리스트의 항목
+수정 버튼
+과목 명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>공백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">담당 교수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">한혁수
+요일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">월
+시간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 3-6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수강 년도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">학기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>과목 리스트에서 항목을
+선택한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>수정 버튼을 클릭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>입력값을 수정한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>수정 완료 버튼을 클릭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">과목 리스트의 항목
+수정 버튼
+과목 명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">소프트웨어 공학
+담당 교수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>공백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">요일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">월
+시간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 3-6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수강 년도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">학기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">과목 리스트의 항목
+수정 버튼
+과목 명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">소프트웨어 공학
+담당 교수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">한혁수
+요일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">월
+시간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>공백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수강 년도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">학기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">과목 리스트의 항목
+수정 버튼
+과목 명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">소프트웨어 공학
+담당 교수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>한혁수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">@
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">요일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">월
+시간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 3-6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수강 년도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">학기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문자는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뜬다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR003</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC0070</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로그인이 되어 있는 상태
+2. 수강과목이 최소 1개 이상 등록되어 있는 상태</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 과목 리스트에서 항목을 선택한다.
+2. 수정 버튼을 클릭한다.</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 수정 화면</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1406</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10904,7 +11310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -11125,6 +11531,32 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -11435,12 +11867,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -11534,9 +11963,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11635,6 +12061,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11988,7 +12426,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12001,226 +12439,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.200000000000003">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
     <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
     <row r="4" spans="1:4" ht="21">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1">
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>43246</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>43246</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>43247</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>43247</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>43249</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>43249</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>43251</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.2">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>43251</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="67">
+        <v>43252</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="17"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="17"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12234,11 +12678,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView windowProtection="1" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="75" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12252,13 +12696,13 @@
     <col min="7" max="7" width="63.8984375"/>
     <col min="8" max="8" width="30.59765625"/>
     <col min="9" max="9" width="9.19921875"/>
-    <col min="10" max="10" width="12" style="21"/>
+    <col min="10" max="10" width="12" style="20"/>
     <col min="11" max="11" width="17.796875"/>
     <col min="12" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
       <c r="J1"/>
@@ -12267,2198 +12711,2206 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>69</v>
       </c>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <f>69-26</f>
         <v>43</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>26</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="34.799999999999997">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="34.799999999999997">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>55</v>
-      </c>
+      <c r="F9" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="34.799999999999997">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>58</v>
-      </c>
+      <c r="F10" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="34.799999999999997">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="K11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="34.799999999999997">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="35" t="s">
+      <c r="F12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="35"/>
+      <c r="I12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="34.799999999999997">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="F13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="27" t="s">
+      <c r="H13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="34.799999999999997">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="27" t="s">
+      <c r="H14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="34.799999999999997">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="27" t="s">
+      <c r="H15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="78.75" customHeight="1">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="2:11" ht="79.5" customHeight="1">
-      <c r="B17" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>83</v>
-      </c>
+      <c r="B17" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:11" ht="76.5" customHeight="1">
-      <c r="B18" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="B18" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>87</v>
-      </c>
+      <c r="D18" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="2:11" ht="74.25" customHeight="1">
-      <c r="B19" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>91</v>
-      </c>
+      <c r="B19" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:11" ht="73.5" customHeight="1">
-      <c r="B20" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>94</v>
-      </c>
+      <c r="B20" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="2:11" ht="48.6">
-      <c r="B21" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="27" t="s">
+      <c r="B21" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="27"/>
+      <c r="J21" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:11" ht="48.6">
-      <c r="B22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="B22" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="2:11" ht="52.2">
-      <c r="B23" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="27" t="s">
+      <c r="B23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="27"/>
+      <c r="J23" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="145.80000000000001">
-      <c r="B24" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" s="27" t="s">
+      <c r="B24" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="27"/>
+      <c r="J24" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="2:11" ht="69.599999999999994">
-      <c r="B25" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="B25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="27"/>
+      <c r="J25" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="2:11" ht="58.8">
-      <c r="B26" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>125</v>
-      </c>
+      <c r="B26" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="I26" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="2:11" ht="145.80000000000001">
-      <c r="B27" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>129</v>
-      </c>
+      <c r="B27" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="J27" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="2:11" ht="145.80000000000001">
-      <c r="B28" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>132</v>
-      </c>
+      <c r="B28" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="2:11" ht="145.80000000000001">
-      <c r="B29" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="B29" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I29" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K29" s="66"/>
+    </row>
+    <row r="30" spans="2:11" ht="52.2">
+      <c r="B30" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="145.80000000000001">
+      <c r="B31" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>135</v>
-      </c>
+      <c r="D31" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="I31" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="K31" s="37"/>
     </row>
-    <row r="30" spans="2:11" ht="145.80000000000001">
-      <c r="B30" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="34.799999999999997">
-      <c r="B31" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="27" t="s">
+    <row r="32" spans="2:11" ht="34.799999999999997">
+      <c r="B32" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="2:11" ht="41.4">
-      <c r="B32" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" s="42"/>
+      <c r="J32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="2:11" ht="41.4">
-      <c r="B33" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>159</v>
-      </c>
+      <c r="B33" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="2:11" ht="41.4">
-      <c r="B34" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" s="42"/>
+      <c r="B34" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="35" spans="2:11" ht="121.8">
-      <c r="B35" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J35" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K35" s="42"/>
+    <row r="35" spans="2:11" ht="41.4">
+      <c r="B35" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="2:11" ht="121.8">
-      <c r="B36" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="41" t="s">
+      <c r="B36" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J36" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K36" s="30"/>
+      <c r="J36" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" spans="2:11" ht="121.8">
-      <c r="B37" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I37" s="41" t="s">
+      <c r="B37" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K37" s="30"/>
+      <c r="J37" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="2:11" ht="121.8">
-      <c r="B38" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="I38" s="41" t="s">
+      <c r="B38" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J38" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K38" s="30"/>
+      <c r="J38" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K38" s="29"/>
     </row>
     <row r="39" spans="2:11" ht="121.8">
-      <c r="B39" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="I39" s="41" t="s">
+      <c r="B39" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K39" s="30"/>
+      <c r="J39" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" spans="2:11" ht="121.8">
-      <c r="B40" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" s="41" t="s">
+      <c r="B40" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K40" s="30"/>
+      <c r="J40" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="2:11" ht="121.8">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I41" s="41" t="s">
+      <c r="D41" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K41" s="30"/>
+      <c r="J41" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="2:11" ht="121.8">
-      <c r="B42" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="41" t="s">
+      <c r="B42" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K42" s="30"/>
+      <c r="J42" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K42" s="29"/>
     </row>
-    <row r="43" spans="2:11" ht="124.2">
-      <c r="B43" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" s="41" t="s">
+    <row r="43" spans="2:11" ht="121.8">
+      <c r="B43" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K43" s="30"/>
+      <c r="J43" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="29"/>
     </row>
-    <row r="44" spans="2:11" ht="121.8">
-      <c r="B44" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I44" s="41" t="s">
+    <row r="44" spans="2:11" ht="124.2">
+      <c r="B44" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J44" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K44" s="30"/>
+      <c r="J44" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" ht="121.8">
-      <c r="B45" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="30" t="s">
+      <c r="B45" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K45" s="29"/>
+    </row>
+    <row r="46" spans="2:11" ht="121.8">
+      <c r="B46" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="29"/>
+    </row>
+    <row r="47" spans="2:11" ht="124.2">
+      <c r="B47" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47" s="29"/>
+    </row>
+    <row r="48" spans="2:11" ht="121.8">
+      <c r="B48" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K48" s="29"/>
+    </row>
+    <row r="49" spans="2:11" ht="124.2">
+      <c r="B49" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="K49" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="121.8">
+      <c r="B50" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="F50" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F45" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" s="46" t="s">
+      <c r="G50" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="H45" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K45" s="30"/>
-    </row>
-    <row r="46" spans="2:11" ht="124.2">
-      <c r="B46" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I46" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J46" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="2:11" ht="121.8">
-      <c r="B47" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I47" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J47" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K47" s="30"/>
-    </row>
-    <row r="48" spans="2:11" ht="124.2">
-      <c r="B48" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J48" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="K48" s="47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="121.8">
-      <c r="B49" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="I49" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J49" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="K49" s="47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="87">
-      <c r="B50" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="G50" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K50" s="30"/>
+      <c r="I50" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50" s="45" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="51" spans="2:11" ht="87">
-      <c r="B51" s="47" t="s">
-        <v>212</v>
+      <c r="B51" s="29" t="s">
+        <v>176</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="H51" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I51" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J51" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K51" s="47" t="s">
-        <v>225</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K51" s="29"/>
     </row>
     <row r="52" spans="2:11" ht="87">
-      <c r="B52" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="I52" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J52" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K52" s="30"/>
+      <c r="B52" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K52" s="45" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="53" spans="2:11" ht="87">
-      <c r="B53" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>220</v>
+      <c r="B53" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F53" s="47" t="s">
-        <v>233</v>
+        <v>192</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I53" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J53" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K53" s="47" t="s">
-        <v>234</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K53" s="29"/>
     </row>
     <row r="54" spans="2:11" ht="87">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J54" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="87">
+      <c r="B55" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="J55" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K55" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="104.4">
+      <c r="B56" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H56" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="J56" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="87">
+      <c r="B57" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H57" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="69.599999999999994">
+      <c r="B58" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I54" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J54" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K54" s="47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="104.4">
-      <c r="B55" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="G55" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="H55" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J55" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K55" s="47" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="87">
-      <c r="B56" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="G56" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="H56" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I56" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J56" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K56" s="47" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="69.599999999999994">
-      <c r="B57" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="F57" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="G57" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="H57" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="I57" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J57" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K57" s="47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="82.8">
-      <c r="B58" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="F58" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="G58" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="H58" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K58" s="30"/>
+      <c r="G58" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I58" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J58" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K58" s="45" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="59" spans="2:11" ht="82.8">
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H59" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K59" s="29"/>
+    </row>
+    <row r="60" spans="2:11" ht="82.8">
+      <c r="B60" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H60" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J60" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K60" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="69.599999999999994">
+      <c r="B61" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="I61" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K61" s="29"/>
+    </row>
+    <row r="62" spans="2:11" ht="52.2">
+      <c r="B62" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K62" s="29"/>
+    </row>
+    <row r="63" spans="2:11" ht="34.799999999999997">
+      <c r="B63" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K63" s="29"/>
+    </row>
+    <row r="64" spans="2:11" ht="82.8">
+      <c r="B64" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K64" s="29"/>
+    </row>
+    <row r="65" spans="2:11" ht="150.75" customHeight="1">
+      <c r="B65" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="H65" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I65" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K65" s="45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="123" customHeight="1">
+      <c r="B66" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="G59" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="H59" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="I59" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J59" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K59" s="47" t="s">
-        <v>211</v>
-      </c>
+      <c r="C66" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K66" s="29"/>
     </row>
-    <row r="60" spans="2:11" ht="69.599999999999994">
-      <c r="B60" s="30" t="s">
+    <row r="67" spans="2:11" ht="121.8">
+      <c r="B67" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="D60" s="49" t="s">
+      <c r="C67" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="F67" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="F60" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="G60" s="52" t="s">
+      <c r="G67" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H67" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="H60" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="I60" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J60" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K60" s="30"/>
-    </row>
-    <row r="61" spans="2:11" ht="52.2">
-      <c r="B61" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D61" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="F61" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="G61" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="H61" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="I61" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J61" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K61" s="30"/>
-    </row>
-    <row r="62" spans="2:11" ht="34.799999999999997">
-      <c r="B62" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D62" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="F62" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="G62" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="H62" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="I62" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J62" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K62" s="30"/>
-    </row>
-    <row r="63" spans="2:11" ht="82.8">
-      <c r="B63" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="D63" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="F63" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="G63" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="H63" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J63" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K63" s="30"/>
-    </row>
-    <row r="64" spans="2:11" ht="150.75" customHeight="1">
-      <c r="B64" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="G64" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="H64" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J64" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K64" s="47" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="123" customHeight="1">
-      <c r="B65" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="D65" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="E65" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="G65" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="H65" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I65" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J65" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K65" s="30"/>
-    </row>
-    <row r="66" spans="2:11" ht="121.8">
-      <c r="B66" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="E66" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G66" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="H66" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="I66" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J66" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K66" s="30"/>
-    </row>
-    <row r="67" spans="2:11" ht="69.599999999999994">
-      <c r="B67" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D67" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="F67" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="G67" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="H67" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J67" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K67" s="30"/>
+      <c r="I67" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K67" s="29"/>
     </row>
     <row r="68" spans="2:11" ht="69.599999999999994">
-      <c r="B68" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="D68" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="E68" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F68" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="G68" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="H68" s="60" t="s">
-        <v>303</v>
-      </c>
-      <c r="I68" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J68" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K68" s="30"/>
+      <c r="B68" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="H68" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K68" s="29"/>
     </row>
     <row r="69" spans="2:11" ht="69.599999999999994">
-      <c r="B69" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F69" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="H69" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="I69" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J69" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="K69" s="47" t="s">
-        <v>309</v>
-      </c>
+      <c r="B69" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K69" s="29"/>
     </row>
-    <row r="70" spans="2:11" ht="104.4">
-      <c r="B70" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="F70" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="G70" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="H70" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="I70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J70" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K70" s="30"/>
+    <row r="70" spans="2:11" ht="69.599999999999994">
+      <c r="B70" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="I70" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J70" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K70" s="45" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="71" spans="2:11" ht="69.599999999999994">
-      <c r="B71" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="E71" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="F71" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="H71" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J71" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K71" s="30"/>
+    <row r="71" spans="2:11" ht="104.4">
+      <c r="B71" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="I71" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J71" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K71" s="29"/>
     </row>
     <row r="72" spans="2:11" ht="69.599999999999994">
-      <c r="B72" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="F72" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="G72" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="H72" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="I72" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="J72" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K72" s="30"/>
+      <c r="B72" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K72" s="29"/>
     </row>
-    <row r="73" spans="2:11" ht="55.2">
-      <c r="B73" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="E73" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>331</v>
+    <row r="73" spans="2:11" ht="69.599999999999994">
+      <c r="B73" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>290</v>
       </c>
       <c r="G73" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="H73" s="65" t="s">
-        <v>333</v>
-      </c>
-      <c r="I73" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J73" s="66">
+        <v>291</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="I73" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K73" s="29"/>
+    </row>
+    <row r="74" spans="2:11" ht="55.2">
+      <c r="B74" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G74" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="H74" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="I74" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J74" s="64">
         <v>43251</v>
       </c>
-      <c r="K73" s="47" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" ht="69.599999999999994">
-      <c r="B74" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="F74" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="G74" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J74" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K74" s="30"/>
+      <c r="K74" s="45" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="75" spans="2:11" ht="69.599999999999994">
-      <c r="B75" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="D75" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="E75" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="F75" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="G75" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="H75" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="I75" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J75" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K75" s="30"/>
+      <c r="B75" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K75" s="29"/>
     </row>
-    <row r="76" spans="2:11" ht="55.2">
-      <c r="B76" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="G76" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="H76" s="45" t="s">
-        <v>350</v>
+    <row r="76" spans="2:11" ht="69.599999999999994">
+      <c r="B76" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="H76" s="44" t="s">
+        <v>309</v>
       </c>
       <c r="I76" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J76" s="66">
+        <v>55</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K76" s="29"/>
+    </row>
+    <row r="77" spans="2:11" ht="55.2">
+      <c r="B77" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="G77" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="I77" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77" s="64">
         <v>43251</v>
       </c>
-      <c r="K76" s="47" t="s">
-        <v>351</v>
+      <c r="K77" s="45" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I36">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F42" r:id="rId1"/>
-    <hyperlink ref="F44" r:id="rId2"/>
+    <hyperlink ref="F43" r:id="rId1"/>
+    <hyperlink ref="F45" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId3"/>
